--- a/PFOS/Data/PAM_P.xlsx
+++ b/PFOS/Data/PAM_P.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4795f5e3347afba5/Desktop/Dissertation/Lake_Murray/2024-25_Lake_Murray_Bioassays/PFOS/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{49CB815F-C384-43E1-A295-ADCE819813A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B197CBBC-ABB9-4C16-98BF-2F2B5FA4719C}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{49CB815F-C384-43E1-A295-ADCE819813A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{912044F6-AFF0-41BD-8A64-C9FC99F82FCC}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D131541-2DDB-4E96-A093-0BB7DF4141D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5D131541-2DDB-4E96-A093-0BB7DF4141D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>FvFm</t>
   </si>
   <si>
-    <t>May</t>
-  </si>
-  <si>
     <t>T0</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Methanol</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D16"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,19 +505,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45497</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>45455</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
       <c r="F2">
         <v>0.48</v>
@@ -525,19 +525,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45497</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>45455</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>0.46800000000000003</v>
@@ -545,19 +545,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45497</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
-        <v>45455</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>0.47599999999999998</v>
@@ -565,19 +565,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45497</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
-        <v>45455</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>0.47</v>
@@ -585,19 +585,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45497</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
-        <v>45455</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>0.47499999999999998</v>
@@ -605,19 +605,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>0.57299999999999995</v>
@@ -625,19 +625,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>0.58399999999999996</v>
@@ -645,19 +645,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>0.56699999999999995</v>
@@ -665,19 +665,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>0.56200000000000006</v>
@@ -685,19 +685,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>0.58599999999999997</v>
@@ -705,19 +705,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>0.63300000000000001</v>
@@ -725,19 +725,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>0.628</v>
@@ -745,19 +745,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>0.627</v>
@@ -765,19 +765,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>0.60399999999999998</v>
@@ -785,19 +785,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>0.63900000000000001</v>
@@ -805,19 +805,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17">
         <v>0.60499999999999998</v>
@@ -825,19 +825,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>0.61299999999999999</v>
@@ -845,19 +845,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>0.60699999999999998</v>
@@ -865,19 +865,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>0.61</v>
@@ -885,19 +885,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>0.61199999999999999</v>
@@ -905,19 +905,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22">
         <v>0.64100000000000001</v>
@@ -925,19 +925,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>0.63100000000000001</v>
@@ -945,19 +945,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>0.628</v>
@@ -965,19 +965,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <v>0.65500000000000003</v>
@@ -985,19 +985,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <v>0.64</v>
@@ -1005,19 +1005,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27">
         <v>0.628</v>
@@ -1025,19 +1025,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28">
         <v>0.6</v>
@@ -1045,19 +1045,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>0.64600000000000002</v>
@@ -1065,19 +1065,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>0.60899999999999999</v>
@@ -1085,19 +1085,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31">
         <v>0.60099999999999998</v>
@@ -1105,19 +1105,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32">
         <v>0.63700000000000001</v>
@@ -1125,19 +1125,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33">
         <v>0.627</v>
@@ -1145,19 +1145,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34">
         <v>0.624</v>
@@ -1165,19 +1165,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35">
         <v>0.623</v>
@@ -1185,19 +1185,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F36">
         <v>0.60799999999999998</v>
@@ -1205,19 +1205,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37">
         <v>0.62</v>
@@ -1225,19 +1225,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38">
         <v>0.627</v>
@@ -1245,19 +1245,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <v>0.629</v>
@@ -1265,19 +1265,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40">
         <v>0.63200000000000001</v>
@@ -1285,19 +1285,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41">
         <v>0.6</v>
@@ -1305,19 +1305,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42">
         <v>0.61699999999999999</v>
@@ -1325,19 +1325,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43">
         <v>0.63800000000000001</v>
@@ -1345,19 +1345,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C44" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44">
         <v>0.63400000000000001</v>
@@ -1365,19 +1365,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C45" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45">
         <v>0.624</v>
@@ -1385,19 +1385,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F46">
         <v>0.627</v>
